--- a/public/templates/mau-nhap-sinh-vien-lhp.xlsx
+++ b/public/templates/mau-nhap-sinh-vien-lhp.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29127"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Admin\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\DU AN QUAN LY SINH VIEN VA KET QUA HOC TAP\Frontend\free-nextjs-admin-dashboard-main\public\templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DBBBF3E2-3306-467C-8322-8978B85A3550}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12210"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -29,24 +30,9 @@
     <t>STT</t>
   </si>
   <si>
-    <t>Email</t>
-  </si>
-  <si>
     <t>Nguyễn Văn A</t>
   </si>
   <si>
-    <t>MaSinhVien</t>
-  </si>
-  <si>
-    <t>HoTen</t>
-  </si>
-  <si>
-    <t>GioiTinh</t>
-  </si>
-  <si>
-    <t>SDT</t>
-  </si>
-  <si>
     <t>222001650</t>
   </si>
   <si>
@@ -173,16 +159,31 @@
     <t>0912121659</t>
   </si>
   <si>
-    <t>MaLopHocPhan</t>
-  </si>
-  <si>
     <t>LHP001</t>
+  </si>
+  <si>
+    <t>MaLopHocPhan (Required)</t>
+  </si>
+  <si>
+    <t>Email (Optional)</t>
+  </si>
+  <si>
+    <t>SDT (Optional)</t>
+  </si>
+  <si>
+    <t>GioiTinh (Optional)</t>
+  </si>
+  <si>
+    <t>HoTen (Optional)</t>
+  </si>
+  <si>
+    <t>MaSinhVien (Required)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="4">
     <font>
       <sz val="11"/>
@@ -548,12 +549,12 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:J11"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G13" sqref="G13"/>
+      <selection pane="bottomLeft" activeCell="F15" sqref="F15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -574,22 +575,22 @@
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>3</v>
+        <v>50</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>4</v>
+        <v>49</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>5</v>
+        <v>48</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>1</v>
+        <v>46</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>6</v>
+        <v>47</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="I1" s="2"/>
       <c r="J1" s="2"/>
@@ -599,22 +600,22 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="C2" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D2" t="s">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="E2" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="F2" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="G2" s="3" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
     </row>
     <row r="3" spans="1:10">
@@ -622,22 +623,22 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="C3" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="D3" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="E3" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="F3" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="G3" s="3" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
     </row>
     <row r="4" spans="1:10">
@@ -645,22 +646,22 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="C4" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="D4" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="E4" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="F4" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="G4" s="3" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
     </row>
     <row r="5" spans="1:10">
@@ -668,22 +669,22 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="C5" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="D5" t="s">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="E5" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="F5" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="G5" s="3" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
     </row>
     <row r="6" spans="1:10">
@@ -691,22 +692,22 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="C6" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="D6" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="E6" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="F6" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="G6" s="3" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
     </row>
     <row r="7" spans="1:10">
@@ -714,22 +715,22 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="C7" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="D7" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="E7" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="F7" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="G7" s="3" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
     </row>
     <row r="8" spans="1:10">
@@ -737,22 +738,22 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="C8" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="D8" t="s">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="E8" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="F8" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="G8" s="3" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
     </row>
     <row r="9" spans="1:10">
@@ -760,22 +761,22 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="C9" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="D9" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="E9" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="F9" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="G9" s="3" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
     </row>
     <row r="10" spans="1:10">
@@ -783,22 +784,22 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="C10" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="D10" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="E10" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="F10" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="G10" s="3" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
     </row>
     <row r="11" spans="1:10">
@@ -806,22 +807,22 @@
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="C11" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="D11" t="s">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="E11" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="F11" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="G11" s="3" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
     </row>
   </sheetData>
